--- a/medicine/Premiers secours et secourisme/Patron_Noé_Devaud/Patron_Noé_Devaud.xlsx
+++ b/medicine/Premiers secours et secourisme/Patron_Noé_Devaud/Patron_Noé_Devaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patron_No%C3%A9_Devaud</t>
+          <t>Patron_Noé_Devaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Patron Noé Devaud (SNS 052) est un ancien bateau français de la Société nationale de sauvetage en mer (SNSM). Ce canot tous temps avec une coque acier, insubmersible et autoredressable a été lancé à la station SNSM de L'Île-d'Yeu. Il pouvait sortir dans n'importe condition de vent et de mer. (Les canots tous temps sont reconnaissables à leur coque de couleur verte et à leur numéro commançant par un 0).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patron_No%C3%A9_Devaud</t>
+          <t>Patron_Noé_Devaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été baptisé du nom de Noé Devaud, patron du canot de sauvetage Paul Tourreil (un des six survivants)  lors du dramatique sauvetage du cargo norvégien Ymer (26-28 janvier 1917) [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été baptisé du nom de Noé Devaud, patron du canot de sauvetage Paul Tourreil (un des six survivants)  lors du dramatique sauvetage du cargo norvégien Ymer (26-28 janvier 1917) .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patron_No%C3%A9_Devaud</t>
+          <t>Patron_Noé_Devaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Service</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Patron Noé Devaud a été en service aux stations SNSM de l'Île-d'Yeu, de Ouistreham et de Camaret-sur-Mer (1997-2001).
-Il a été hors d'eau sur un quai du port de L'Île-d'Yeu jusqu'au 29 avril 2015[2].
+Il a été hors d'eau sur un quai du port de L'Île-d'Yeu jusqu'au 29 avril 2015.
 </t>
         </is>
       </c>
